--- a/migrate-nxos/143b-core01_export.xlsx
+++ b/migrate-nxos/143b-core01_export.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Tenant" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VRF" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Bridge_Domain" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Gateway" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Bridge Domain" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Subnet" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="DHCP Relay" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Migrate Interfaces" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
